--- a/Divisions/F1.xlsx
+++ b/Divisions/F1.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="L6" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9066" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9170" uniqueCount="329">
   <si>
     <t>Team</t>
   </si>
@@ -752,16 +760,267 @@
   </si>
   <si>
     <t>2.8</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Angers,D D L L L L</t>
+  </si>
+  <si>
+    <t>Bordeaux,L L L L L W</t>
+  </si>
+  <si>
+    <t>Brest,D L D D W L</t>
+  </si>
+  <si>
+    <t>Dijon,L L L W L L</t>
+  </si>
+  <si>
+    <t>Lens,W D W D W L</t>
+  </si>
+  <si>
+    <t>Lille,L W W D W W</t>
+  </si>
+  <si>
+    <t>Lorient,D W L L W W</t>
+  </si>
+  <si>
+    <t>Lyon,L D W W L W</t>
+  </si>
+  <si>
+    <t>Marseille,L W D W W D</t>
+  </si>
+  <si>
+    <t>Metz,L L L D L W</t>
+  </si>
+  <si>
+    <t>Monaco,W W W W W L</t>
+  </si>
+  <si>
+    <t>Montpellier,W D D D L L</t>
+  </si>
+  <si>
+    <t>Nantes,D L L L W W</t>
+  </si>
+  <si>
+    <t>Nice,W W D L W L</t>
+  </si>
+  <si>
+    <t>Nimes,W L D D L D</t>
+  </si>
+  <si>
+    <t>Paris SG,W L W W W W</t>
+  </si>
+  <si>
+    <t>Reims,W D D D L D</t>
+  </si>
+  <si>
+    <t>Rennes,W D W W W L</t>
+  </si>
+  <si>
+    <t>St Etienne,L W W L L W</t>
+  </si>
+  <si>
+    <t>Strasbourg,L W L D L D</t>
+  </si>
+  <si>
+    <t>Angers,0 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Bordeaux,1 2 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Brest,0 0 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Dijon,0 0 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Lens,2 1 4 1 2 1</t>
+  </si>
+  <si>
+    <t>Lille,1 1 2 1 3 2</t>
+  </si>
+  <si>
+    <t>Lorient,1 1 1 2 4 2</t>
+  </si>
+  <si>
+    <t>Lyon,2 1 3 2 2 3</t>
+  </si>
+  <si>
+    <t>Marseille,0 2 3 3 3 1</t>
+  </si>
+  <si>
+    <t>Metz,1 0 0 0 1 5</t>
+  </si>
+  <si>
+    <t>Monaco,4 4 3 3 1 2</t>
+  </si>
+  <si>
+    <t>Montpellier,3 1 3 1 1 1</t>
+  </si>
+  <si>
+    <t>Nantes,1 1 0 1 2 4</t>
+  </si>
+  <si>
+    <t>Nice,3 2 0 0 3 0</t>
+  </si>
+  <si>
+    <t>Nimes,2 0 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Paris SG,4 0 4 3 3 2</t>
+  </si>
+  <si>
+    <t>Reims,1 2 0 0 1 2</t>
+  </si>
+  <si>
+    <t>Rennes,3 2 1 3 5 0</t>
+  </si>
+  <si>
+    <t>St Etienne,0 2 4 2 1 2</t>
+  </si>
+  <si>
+    <t>Strasbourg,1 3 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Angers,0 1 3 3 1 2</t>
+  </si>
+  <si>
+    <t>Bordeaux,3 3 4 3 4 0</t>
+  </si>
+  <si>
+    <t>Brest,0 1 1 1 1 4</t>
+  </si>
+  <si>
+    <t>Dijon,1 2 3 0 5 5</t>
+  </si>
+  <si>
+    <t>Lens,1 1 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Lille,2 0 0 1 2 0</t>
+  </si>
+  <si>
+    <t>Lorient,1 0 4 3 1 0</t>
+  </si>
+  <si>
+    <t>Lyon,4 1 0 1 3 2</t>
+  </si>
+  <si>
+    <t>Marseille,3 0 3 2 1 1</t>
+  </si>
+  <si>
+    <t>Metz,3 4 2 0 3 1</t>
+  </si>
+  <si>
+    <t>Monaco,0 0 0 0 0 3</t>
+  </si>
+  <si>
+    <t>Montpellier,1 1 3 1 3 2</t>
+  </si>
+  <si>
+    <t>Nantes,1 2 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Nice,0 1 0 2 1 2</t>
+  </si>
+  <si>
+    <t>Nimes,1 2 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Paris SG,2 1 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Reims,0 2 0 0 3 2</t>
+  </si>
+  <si>
+    <t>Rennes,1 2 0 0 1 1</t>
+  </si>
+  <si>
+    <t>St Etienne,4 0 1 3 2 1</t>
+  </si>
+  <si>
+    <t>Strasbourg,2 2 4 1 2 1</t>
+  </si>
+  <si>
+    <t>Angers,0 2 3 3 1 2</t>
+  </si>
+  <si>
+    <t>Bordeaux,4 5 5 3 5 1</t>
+  </si>
+  <si>
+    <t>Brest,0 1 2 2 3 5</t>
+  </si>
+  <si>
+    <t>Dijon,1 2 3 2 6 6</t>
+  </si>
+  <si>
+    <t>Lens,3 2 5 2 3 3</t>
+  </si>
+  <si>
+    <t>Lille,3 1 2 2 5 2</t>
+  </si>
+  <si>
+    <t>Lorient,2 1 5 5 5 2</t>
+  </si>
+  <si>
+    <t>Lyon,6 2 3 3 5 5</t>
+  </si>
+  <si>
+    <t>Marseille,3 2 6 5 4 2</t>
+  </si>
+  <si>
+    <t>Metz,4 4 2 0 4 6</t>
+  </si>
+  <si>
+    <t>Monaco,4 4 3 3 1 5</t>
+  </si>
+  <si>
+    <t>Montpellier,4 2 6 2 4 3</t>
+  </si>
+  <si>
+    <t>Nantes,2 3 1 3 3 5</t>
+  </si>
+  <si>
+    <t>Nice,3 3 0 2 4 2</t>
+  </si>
+  <si>
+    <t>Nimes,3 2 2 2 3 4</t>
+  </si>
+  <si>
+    <t>Paris SG,6 1 5 5 4 3</t>
+  </si>
+  <si>
+    <t>Reims,1 4 0 0 4 4</t>
+  </si>
+  <si>
+    <t>Rennes,4 4 1 3 6 1</t>
+  </si>
+  <si>
+    <t>St Etienne,4 2 5 5 3 3</t>
+  </si>
+  <si>
+    <t>Strasbourg,3 5 5 2 3 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -773,7 +1032,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -791,19 +1050,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" activeCellId="1" sqref="A5:XFD5 A17:XFD17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +1366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -864,7 +1398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -896,7 +1430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -928,7 +1462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -960,7 +1494,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -992,7 +1526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1558,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1152,7 +1686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1184,7 +1718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1878,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1910,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1408,7 +1942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1974,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1473,20 +2007,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -1782,7 +2315,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2081,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2380,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2679,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2978,7 +3511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3277,7 +3810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3576,7 +4109,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3875,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -4473,7 +5006,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -4772,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -5071,7 +5604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -5370,7 +5903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -5669,7 +6202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5968,7 +6501,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -6267,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -6566,7 +7099,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6865,7 +7398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -7164,7 +7697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -7463,7 +7996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -7763,20 +8296,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -8072,7 +8604,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -8371,7 +8903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -8670,7 +9202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8969,7 +9501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -9268,7 +9800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -9567,7 +10099,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -9866,7 +10398,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -10165,7 +10697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -10464,7 +10996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -10763,7 +11295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -11062,7 +11594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -11361,7 +11893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -11660,7 +12192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -11959,7 +12491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -12258,7 +12790,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -12557,7 +13089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -12856,7 +13388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -13155,7 +13687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -13454,7 +13986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -13753,7 +14285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -14053,20 +14585,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -14362,7 +14893,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -14661,7 +15192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -14960,7 +15491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -15259,7 +15790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -15558,7 +16089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -15857,7 +16388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -16156,7 +16687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -16455,7 +16986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -16754,7 +17285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -17053,7 +17584,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -17352,7 +17883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -17651,7 +18182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -17950,7 +18481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -18249,7 +18780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -18548,7 +19079,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -18847,7 +19378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -19146,7 +19677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -19445,7 +19976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -19744,7 +20275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -20043,7 +20574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -20343,20 +20874,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -20652,7 +21182,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -20951,7 +21481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -21250,7 +21780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -21549,7 +22079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -21848,7 +22378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -22147,7 +22677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -22446,7 +22976,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -22745,7 +23275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -23044,7 +23574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -23343,7 +23873,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -23642,7 +24172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -23941,7 +24471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -24240,7 +24770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -24539,7 +25069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -24838,7 +25368,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -25137,7 +25667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -25436,7 +25966,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -25735,7 +26265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -26034,7 +26564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -26333,7 +26863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -26633,20 +27163,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -26723,7 +27252,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -26803,7 +27332,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -26883,7 +27412,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -26963,7 +27492,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -27043,7 +27572,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -27123,7 +27652,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -27203,7 +27732,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -27283,7 +27812,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -27363,7 +27892,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -27443,7 +27972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -27523,7 +28052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -27603,7 +28132,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -27683,7 +28212,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -27763,7 +28292,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -27843,7 +28372,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -27923,7 +28452,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -28003,7 +28532,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -28083,7 +28612,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -28163,7 +28692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -28243,7 +28772,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -28324,6 +28853,380 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/F1.xlsx
+++ b/Divisions/F1.xlsx
@@ -1215,184 +1215,184 @@
     <t>Strasbourg,L D L D L W</t>
   </si>
   <si>
-    <t>Angers,0 0 0 0 3 2</t>
-  </si>
-  <si>
-    <t>Bordeaux,1 0 1 1 0 3</t>
-  </si>
-  <si>
-    <t>Brest,1 1 2 1 2 0</t>
-  </si>
-  <si>
-    <t>Dijon,0 2 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Lens,4 1 2 1 0 0</t>
-  </si>
-  <si>
-    <t>Lille,2 1 3 2 3 0</t>
-  </si>
-  <si>
-    <t>Lorient,1 2 4 2 1 2</t>
-  </si>
-  <si>
-    <t>Lyon,3 2 2 3 4 5</t>
-  </si>
-  <si>
-    <t>Marseille,3 3 3 1 0 3</t>
-  </si>
-  <si>
-    <t>Metz,0 0 1 5 0 1</t>
-  </si>
-  <si>
-    <t>Monaco,3 3 1 2 1 2</t>
-  </si>
-  <si>
-    <t>Montpellier,3 1 1 1 3 0</t>
-  </si>
-  <si>
-    <t>Nantes,0 1 2 4 3 4</t>
-  </si>
-  <si>
-    <t>Nice,0 0 3 0 3 0</t>
-  </si>
-  <si>
-    <t>Nimes,1 1 1 2 3 2</t>
-  </si>
-  <si>
-    <t>Paris SG,4 3 3 2 1 4</t>
-  </si>
-  <si>
-    <t>Reims,0 0 1 2 0 0</t>
-  </si>
-  <si>
-    <t>Rennes,1 3 5 0 1 1</t>
-  </si>
-  <si>
-    <t>St Etienne,4 2 1 2 1 0</t>
-  </si>
-  <si>
-    <t>Strasbourg,1 1 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Angers,3 3 1 2 0 3</t>
-  </si>
-  <si>
-    <t>Bordeaux,4 3 4 0 3 0</t>
-  </si>
-  <si>
-    <t>Brest,1 1 1 4 3 0</t>
-  </si>
-  <si>
-    <t>Dijon,3 0 5 5 3 4</t>
-  </si>
-  <si>
-    <t>Lens,1 1 1 2 3 3</t>
-  </si>
-  <si>
-    <t>Lille,0 1 2 0 0 0</t>
-  </si>
-  <si>
-    <t>Lorient,4 3 1 0 4 1</t>
-  </si>
-  <si>
-    <t>Lyon,0 1 3 2 1 2</t>
-  </si>
-  <si>
-    <t>Marseille,3 2 1 1 1 2</t>
-  </si>
-  <si>
-    <t>Metz,2 0 3 1 3 2</t>
-  </si>
-  <si>
-    <t>Monaco,0 0 0 3 0 1</t>
-  </si>
-  <si>
-    <t>Montpellier,3 1 3 2 2 0</t>
-  </si>
-  <si>
-    <t>Nantes,1 2 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Nice,0 2 1 2 2 2</t>
-  </si>
-  <si>
-    <t>Nimes,1 1 2 2 0 5</t>
-  </si>
-  <si>
-    <t>Paris SG,1 2 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Reims,0 0 3 2 1 4</t>
-  </si>
-  <si>
-    <t>Rennes,0 0 1 1 1 2</t>
-  </si>
-  <si>
-    <t>St Etienne,1 3 2 1 0 0</t>
-  </si>
-  <si>
-    <t>Strasbourg,4 1 2 1 3 0</t>
-  </si>
-  <si>
-    <t>Angers,3 3 1 2 3 5</t>
-  </si>
-  <si>
-    <t>Bordeaux,5 3 5 1 3 3</t>
-  </si>
-  <si>
-    <t>Brest,2 2 3 5 5 0</t>
-  </si>
-  <si>
-    <t>Dijon,3 2 6 6 3 4</t>
-  </si>
-  <si>
-    <t>Lens,5 2 3 3 3 3</t>
-  </si>
-  <si>
-    <t>Lille,2 2 5 2 3 0</t>
-  </si>
-  <si>
-    <t>Lorient,5 5 5 2 5 3</t>
-  </si>
-  <si>
-    <t>Lyon,3 3 5 5 5 7</t>
-  </si>
-  <si>
-    <t>Marseille,6 5 4 2 1 5</t>
-  </si>
-  <si>
-    <t>Metz,2 0 4 6 3 3</t>
-  </si>
-  <si>
-    <t>Monaco,3 3 1 5 1 3</t>
-  </si>
-  <si>
-    <t>Montpellier,6 2 4 3 5 0</t>
-  </si>
-  <si>
-    <t>Nantes,1 3 3 5 3 4</t>
-  </si>
-  <si>
-    <t>Nice,0 2 4 2 5 2</t>
-  </si>
-  <si>
-    <t>Nimes,2 2 3 4 3 7</t>
-  </si>
-  <si>
-    <t>Paris SG,5 5 4 3 2 4</t>
-  </si>
-  <si>
-    <t>Reims,0 0 4 4 1 4</t>
-  </si>
-  <si>
-    <t>Rennes,1 3 6 1 2 3</t>
-  </si>
-  <si>
-    <t>St Etienne,5 5 3 3 1 0</t>
-  </si>
-  <si>
-    <t>Strasbourg,5 2 3 2 5 2</t>
+    <t>Angers,0 0 0 0 3 2,(5)</t>
+  </si>
+  <si>
+    <t>Bordeaux,1 0 1 1 0 3,(6)</t>
+  </si>
+  <si>
+    <t>Brest,1 1 2 1 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Dijon,0 2 1 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Lens,4 1 2 1 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Lille,2 1 3 2 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Lorient,1 2 4 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Lyon,3 2 2 3 4 5,(19)</t>
+  </si>
+  <si>
+    <t>Marseille,3 3 3 1 0 3,(13)</t>
+  </si>
+  <si>
+    <t>Metz,0 0 1 5 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Monaco,3 3 1 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Montpellier,3 1 1 1 3 0,(9)</t>
+  </si>
+  <si>
+    <t>Nantes,0 1 2 4 3 4,(14)</t>
+  </si>
+  <si>
+    <t>Nice,0 0 3 0 3 0,(6)</t>
+  </si>
+  <si>
+    <t>Nimes,1 1 1 2 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Paris SG,4 3 3 2 1 4,(17)</t>
+  </si>
+  <si>
+    <t>Reims,0 0 1 2 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Rennes,1 3 5 0 1 1,(11)</t>
+  </si>
+  <si>
+    <t>St Etienne,4 2 1 2 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Strasbourg,1 1 1 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Angers,3 3 1 2 0 3,(12)</t>
+  </si>
+  <si>
+    <t>Bordeaux,4 3 4 0 3 0,(14)</t>
+  </si>
+  <si>
+    <t>Brest,1 1 1 4 3 0,(10)</t>
+  </si>
+  <si>
+    <t>Dijon,3 0 5 5 3 4,(20)</t>
+  </si>
+  <si>
+    <t>Lens,1 1 1 2 3 3,(11)</t>
+  </si>
+  <si>
+    <t>Lille,0 1 2 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Lorient,4 3 1 0 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Lyon,0 1 3 2 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Marseille,3 2 1 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Metz,2 0 3 1 3 2,(11)</t>
+  </si>
+  <si>
+    <t>Monaco,0 0 0 3 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Montpellier,3 1 3 2 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Nantes,1 2 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Nice,0 2 1 2 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Nimes,1 1 2 2 0 5,(11)</t>
+  </si>
+  <si>
+    <t>Paris SG,1 2 1 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Reims,0 0 3 2 1 4,(10)</t>
+  </si>
+  <si>
+    <t>Rennes,0 0 1 1 1 2,(5)</t>
+  </si>
+  <si>
+    <t>St Etienne,1 3 2 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Strasbourg,4 1 2 1 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Angers,3 3 1 2 3 5,(17)</t>
+  </si>
+  <si>
+    <t>Bordeaux,5 3 5 1 3 3,(20)</t>
+  </si>
+  <si>
+    <t>Brest,2 2 3 5 5 0,(17)</t>
+  </si>
+  <si>
+    <t>Dijon,3 2 6 6 3 4,(24)</t>
+  </si>
+  <si>
+    <t>Lens,5 2 3 3 3 3,(19)</t>
+  </si>
+  <si>
+    <t>Lille,2 2 5 2 3 0,(14)</t>
+  </si>
+  <si>
+    <t>Lorient,5 5 5 2 5 3,(25)</t>
+  </si>
+  <si>
+    <t>Lyon,3 3 5 5 5 7,(28)</t>
+  </si>
+  <si>
+    <t>Marseille,6 5 4 2 1 5,(23)</t>
+  </si>
+  <si>
+    <t>Metz,2 0 4 6 3 3,(18)</t>
+  </si>
+  <si>
+    <t>Monaco,3 3 1 5 1 3,(16)</t>
+  </si>
+  <si>
+    <t>Montpellier,6 2 4 3 5 0,(20)</t>
+  </si>
+  <si>
+    <t>Nantes,1 3 3 5 3 4,(19)</t>
+  </si>
+  <si>
+    <t>Nice,0 2 4 2 5 2,(15)</t>
+  </si>
+  <si>
+    <t>Nimes,2 2 3 4 3 7,(21)</t>
+  </si>
+  <si>
+    <t>Paris SG,5 5 4 3 2 4,(23)</t>
+  </si>
+  <si>
+    <t>Reims,0 0 4 4 1 4,(13)</t>
+  </si>
+  <si>
+    <t>Rennes,1 3 6 1 2 3,(16)</t>
+  </si>
+  <si>
+    <t>St Etienne,5 5 3 3 1 0,(17)</t>
+  </si>
+  <si>
+    <t>Strasbourg,5 2 3 2 5 2,(19)</t>
   </si>
   <si>
     <t>Angers,Lyon Rennes Monaco Lorient Dijon Marseille</t>
